--- a/functions/menus/menu3.xlsx
+++ b/functions/menus/menu3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FC2\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ef994ddc3fa0009/Documents/mall-restaurant/functions/menus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65B1B81-1BBD-4A7F-A036-857AC79217E4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{C65B1B81-1BBD-4A7F-A036-857AC79217E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6BA18AFD-98E5-43D8-99E6-31A4B1AA4A3D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="725" firstSheet="23" activeTab="22" xr2:uid="{1B0BC20A-B018-4E59-BC63-AC8AAB0C6F80}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="725" firstSheet="9" activeTab="15" xr2:uid="{1B0BC20A-B018-4E59-BC63-AC8AAB0C6F80}"/>
   </bookViews>
   <sheets>
     <sheet name="Drinks" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="350">
   <si>
     <t>WATER BOTTLE</t>
   </si>
@@ -1014,13 +1014,103 @@
   </si>
   <si>
     <t>FRIES SOYA CHAAP</t>
+  </si>
+  <si>
+    <t>APPY 10</t>
+  </si>
+  <si>
+    <t>APPY 15</t>
+  </si>
+  <si>
+    <t>APPY 35</t>
+  </si>
+  <si>
+    <t>FRUITY 15</t>
+  </si>
+  <si>
+    <t>FRUITY 10</t>
+  </si>
+  <si>
+    <t>FRUITY 35</t>
+  </si>
+  <si>
+    <t>CAN 25</t>
+  </si>
+  <si>
+    <t>CAN 50</t>
+  </si>
+  <si>
+    <t>JUICE 130</t>
+  </si>
+  <si>
+    <t>JUICE 10</t>
+  </si>
+  <si>
+    <t>KULFI 10</t>
+  </si>
+  <si>
+    <t>KULFI 20</t>
+  </si>
+  <si>
+    <t>KULFI 30</t>
+  </si>
+  <si>
+    <t>CAKE</t>
+  </si>
+  <si>
+    <t>BRICK B. SCOTCH</t>
+  </si>
+  <si>
+    <t>BRICK STRAWBRY</t>
+  </si>
+  <si>
+    <t>ICECREAM 20</t>
+  </si>
+  <si>
+    <t>ICEECREAM 30</t>
+  </si>
+  <si>
+    <t>ICECREAM 25</t>
+  </si>
+  <si>
+    <t>ICECREAM CUP 20</t>
+  </si>
+  <si>
+    <t>ICECREAM CUP 30</t>
+  </si>
+  <si>
+    <t>CONE 10</t>
+  </si>
+  <si>
+    <t>CONE 20</t>
+  </si>
+  <si>
+    <t>CONE 25</t>
+  </si>
+  <si>
+    <t>CONE 30</t>
+  </si>
+  <si>
+    <t>EGG MAGGIE</t>
+  </si>
+  <si>
+    <t>FRESH CHEESE</t>
+  </si>
+  <si>
+    <t>STUFF NAAN</t>
+  </si>
+  <si>
+    <t>EXTRA BUTTER HALF</t>
+  </si>
+  <si>
+    <t>EXTRA BUTTER FULL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1045,6 +1135,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1066,7 +1163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1074,6 +1171,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1388,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD66CD1-9B55-47F1-8B3F-91037A9DB16B}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A16" sqref="A16:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,6 +1634,96 @@
         <v>90</v>
       </c>
       <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A21" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A22" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A23" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A25" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2144,10 +2335,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059E8D18-4749-4FAC-8D98-E58ABF5440FA}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2409,6 +2600,24 @@
       </c>
       <c r="B32" s="1">
         <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A33" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A34" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2700,10 +2909,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687B33D1-052D-444C-94C2-5DA7E27E4BAA}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B16"/>
+      <selection activeCell="A17" sqref="A17:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2834,6 +3043,15 @@
       </c>
       <c r="B16" s="1">
         <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3252,15 +3470,15 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B845CAB-F7E7-41BC-9A51-2B06B3733F4A}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A10" sqref="A10:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>121</v>
       </c>
@@ -3268,7 +3486,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>122</v>
       </c>
@@ -3276,7 +3494,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>123</v>
       </c>
@@ -3284,7 +3502,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>128</v>
       </c>
@@ -3292,7 +3510,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>118</v>
       </c>
@@ -3300,7 +3518,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>124</v>
       </c>
@@ -3308,7 +3526,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>125</v>
       </c>
@@ -3316,7 +3534,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>126</v>
       </c>
@@ -3324,12 +3542,147 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B9" s="1">
         <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A21" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A22" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A23" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3419,7 +3772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132A236B-0B44-46EA-9C41-2F134C787B80}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
@@ -4205,10 +4558,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22563CE-23DE-4612-BCB6-E349E143AD01}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C5"/>
+      <selection activeCell="A6" sqref="A6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4257,6 +4610,24 @@
         <v>100</v>
       </c>
       <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/functions/menus/menu3.xlsx
+++ b/functions/menus/menu3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ef994ddc3fa0009/Documents/mall-restaurant/functions/menus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\URBANFOODCOURT1\Users\FC1\OneDrive\Documents\mall-restaurant\functions\menus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{C65B1B81-1BBD-4A7F-A036-857AC79217E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6BA18AFD-98E5-43D8-99E6-31A4B1AA4A3D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA20DE98-7800-43B0-996E-0AC9D64A6AC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="725" firstSheet="9" activeTab="15" xr2:uid="{1B0BC20A-B018-4E59-BC63-AC8AAB0C6F80}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="725" activeTab="1" xr2:uid="{1B0BC20A-B018-4E59-BC63-AC8AAB0C6F80}"/>
   </bookViews>
   <sheets>
     <sheet name="Drinks" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="380">
   <si>
     <t>WATER BOTTLE</t>
   </si>
@@ -995,9 +995,6 @@
     <t>Chineses Bhel</t>
   </si>
   <si>
-    <t>Chocolate</t>
-  </si>
-  <si>
     <t>Chicken Jerry-Merry Half</t>
   </si>
   <si>
@@ -1104,6 +1101,99 @@
   </si>
   <si>
     <t>EXTRA BUTTER FULL</t>
+  </si>
+  <si>
+    <t>ICE</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CANE</t>
+  </si>
+  <si>
+    <t>VEG. BULET</t>
+  </si>
+  <si>
+    <t>ICE CREAM</t>
+  </si>
+  <si>
+    <t>MIX JUICE</t>
+  </si>
+  <si>
+    <t>PEPSI/DEW600ML</t>
+  </si>
+  <si>
+    <t>TEA</t>
+  </si>
+  <si>
+    <t>BUTTER SCOTCH WITH ICE CREAM</t>
+  </si>
+  <si>
+    <t>SHAKES WITH ICE CREAM</t>
+  </si>
+  <si>
+    <t>LOLY POP</t>
+  </si>
+  <si>
+    <t>DISPOSAL</t>
+  </si>
+  <si>
+    <t>JUICE</t>
+  </si>
+  <si>
+    <t>STIME</t>
+  </si>
+  <si>
+    <t>MONSTER</t>
+  </si>
+  <si>
+    <t>COLD COFFEE WITH ICE CREAM</t>
+  </si>
+  <si>
+    <t>APPY</t>
+  </si>
+  <si>
+    <t>PEPSI</t>
+  </si>
+  <si>
+    <t>SLICE</t>
+  </si>
+  <si>
+    <t>Chocolate 5</t>
+  </si>
+  <si>
+    <t>Chocolate 10</t>
+  </si>
+  <si>
+    <t>Chocolate 15</t>
+  </si>
+  <si>
+    <t>Chocolate 20</t>
+  </si>
+  <si>
+    <t>Chocolate 25</t>
+  </si>
+  <si>
+    <t>Chocolate 30</t>
+  </si>
+  <si>
+    <t>Chocolate 35</t>
+  </si>
+  <si>
+    <t>Chocolate 40</t>
+  </si>
+  <si>
+    <t>Chocolate 45</t>
+  </si>
+  <si>
+    <t>Chocolate 50</t>
+  </si>
+  <si>
+    <t>chocolate 0</t>
+  </si>
+  <si>
+    <t>FRESH PANER</t>
   </si>
 </sst>
 </file>
@@ -1489,10 +1579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD66CD1-9B55-47F1-8B3F-91037A9DB16B}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:C25"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1637,92 +1727,178 @@
     </row>
     <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B16" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6">
+      <c r="B17" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B18" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B19" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B20" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6">
+    <row r="21" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A21" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B21" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A22" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B22" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A23" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B23" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B24" s="6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A25" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B25" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A26" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B26" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A27" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B27" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A28" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B28" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A29" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B29" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A30" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B30" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A31" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B31" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A32" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B32" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A33" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B33" s="6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A34" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B34" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A18" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A19" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A21" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A22" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A23" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A24" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A25" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6">
-        <v>10</v>
+    <row r="35" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A35" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B35" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A36" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B36" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A37" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B37" s="6">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2079,7 +2255,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B17" s="1">
         <v>240</v>
@@ -2087,7 +2263,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B18" s="1">
         <v>450</v>
@@ -2335,10 +2511,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059E8D18-4749-4FAC-8D98-E58ABF5440FA}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:C34"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2596,27 +2772,25 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B32" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B33" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A34" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A34" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6">
+      <c r="B34" s="6">
         <v>40</v>
       </c>
     </row>
@@ -2896,7 +3070,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B33" s="1">
         <v>150</v>
@@ -2912,7 +3086,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:C17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3047,12 +3221,12 @@
     </row>
     <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6">
+        <v>346</v>
+      </c>
+      <c r="B17" s="5">
         <v>50</v>
       </c>
+      <c r="C17" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3092,10 +3266,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E0540D-4BB5-415A-B15C-ECA8B8804668}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3457,10 +3631,26 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B45" s="1">
         <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B46" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B47" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3470,15 +3660,15 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B845CAB-F7E7-41BC-9A51-2B06B3733F4A}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C24"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>121</v>
       </c>
@@ -3486,7 +3676,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>122</v>
       </c>
@@ -3494,7 +3684,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>123</v>
       </c>
@@ -3502,7 +3692,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>128</v>
       </c>
@@ -3510,7 +3700,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>118</v>
       </c>
@@ -3518,7 +3708,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>124</v>
       </c>
@@ -3526,7 +3716,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>125</v>
       </c>
@@ -3534,7 +3724,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>126</v>
       </c>
@@ -3542,7 +3732,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>127</v>
       </c>
@@ -3550,139 +3740,204 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B10" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6">
+      <c r="B11" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B12" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B13" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B14" s="6">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B15" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B16" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B17" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B18" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B19" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B20" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A21" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B21" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A11" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6">
+    <row r="22" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A22" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B22" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6">
+    <row r="23" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A23" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B23" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B24" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A13" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A14" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A15" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A16" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6">
+    <row r="25" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A25" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B25" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A26" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B26" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A27" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B27" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A28" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A29" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B29" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A30" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B30" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A31" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B31" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A32" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B32" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A18" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A19" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A21" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A22" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A23" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A24" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6">
-        <v>30</v>
+    <row r="33" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A33" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B33" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A34" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B34" s="6">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3944,10 +4199,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC5DAB1-2B9A-460D-9D97-B75E2068D2A0}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4030,6 +4285,30 @@
       </c>
       <c r="B10" s="1">
         <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B11" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B12" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B13" s="1">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4102,17 +4381,20 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0312194-E693-45E7-B1CC-9D752A619F25}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>313</v>
+        <v>368</v>
       </c>
       <c r="B1">
         <v>5</v>
@@ -4120,7 +4402,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>313</v>
+        <v>369</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -4128,7 +4410,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>313</v>
+        <v>370</v>
       </c>
       <c r="B3">
         <v>15</v>
@@ -4136,7 +4418,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>313</v>
+        <v>371</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -4144,7 +4426,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>313</v>
+        <v>372</v>
       </c>
       <c r="B5">
         <v>25</v>
@@ -4152,7 +4434,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>313</v>
+        <v>373</v>
       </c>
       <c r="B6">
         <v>30</v>
@@ -4160,7 +4442,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>313</v>
+        <v>374</v>
       </c>
       <c r="B7">
         <v>35</v>
@@ -4168,7 +4450,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>313</v>
+        <v>375</v>
       </c>
       <c r="B8">
         <v>40</v>
@@ -4176,7 +4458,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>313</v>
+        <v>376</v>
       </c>
       <c r="B9">
         <v>45</v>
@@ -4184,10 +4466,18 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>313</v>
+        <v>377</v>
       </c>
       <c r="B10">
         <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4450,7 +4740,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B15" s="1">
         <v>400</v>
@@ -4506,7 +4796,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B22" s="1">
         <v>210</v>
@@ -4558,10 +4848,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22563CE-23DE-4612-BCB6-E349E143AD01}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4613,20 +4903,34 @@
     </row>
     <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6">
+        <v>344</v>
+      </c>
+      <c r="B6" s="6">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6">
+        <v>345</v>
+      </c>
+      <c r="B7" s="6">
         <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B9" s="1">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
